--- a/indicadores/tablas/120102.xlsx
+++ b/indicadores/tablas/120102.xlsx
@@ -444,7 +444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/120102.xlsx
+++ b/indicadores/tablas/120102.xlsx
@@ -444,7 +444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/120102.xlsx
+++ b/indicadores/tablas/120102.xlsx
@@ -114,7 +114,7 @@
     <t xml:space="preserve">CITA</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en DINEM - MIDES / MIDES-MEF-OPP</t>
+    <t xml:space="preserve">UMAD con base en DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
   </si>
 </sst>
 </file>

--- a/indicadores/tablas/120102.xlsx
+++ b/indicadores/tablas/120102.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,106 +21,118 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
     <t xml:space="preserve">2005</t>
   </si>
   <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasto público en educación como porcentaje del gasto público total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Educación</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">Prioridad fiscal del gasto público en educación</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gasto público en educación como porcentaje del gasto público total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas Públicas y Esfuerzo Económico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el peso del gasto público en educación en el gasto público total.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Gasto público en educación / Gasto público total)*100</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Políticas Públicas y Esfuerzo Económico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAD con base en DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en DINEM - MIDES hasta 2018, a partir de 2019 MIDES-MEF-OPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -439,12 +451,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -459,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>10.7</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>11.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="6">
@@ -491,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="7">
@@ -499,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="10">
@@ -531,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="12">
@@ -539,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="13">
@@ -547,7 +559,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
@@ -555,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="15">
@@ -563,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="16">
@@ -571,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +591,15 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>13.6</v>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -589,75 +609,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/120102.xlsx
+++ b/indicadores/tablas/120102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,12 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -72,9 +78,6 @@
     <t xml:space="preserve">2005</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -118,6 +121,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
@@ -471,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="4">
@@ -487,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="9">
@@ -527,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="10">
@@ -535,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="11">
@@ -543,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="12">
@@ -551,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13">
@@ -559,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="16">
@@ -583,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>11.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +600,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>10.7</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="18">
@@ -599,6 +608,22 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
         <v>10.5</v>
       </c>
     </row>
@@ -618,82 +643,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
